--- a/results/MLP_tree/hidden_size_256/s_MLP_tree_data_insilico_seed_9_2024-05-30_PH_120/output.xlsx
+++ b/results/MLP_tree/hidden_size_256/s_MLP_tree_data_insilico_seed_9_2024-05-30_PH_120/output.xlsx
@@ -511,19 +511,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.017488156</t>
+          <t>0.0061817034</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.07893132</t>
+          <t>0.055251397</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -571,19 +571,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.053362973</t>
+          <t>0.051991455</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.17146014</t>
+          <t>0.16759811</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
